--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -51,7 +51,28 @@
     <t>实验一</t>
   </si>
   <si>
-    <t>SourceFrequency,Attenuator,EquivalentSectionPosition</t>
+    <t>SourceFrequency,Attenuator,EquivalentSectionPosition,InputWavelength</t>
+  </si>
+  <si>
+    <t>WaveNodePosShortCircuit,StandingWaveRatioCircuit</t>
+  </si>
+  <si>
+    <t>VariableShortCircuitFirstPos,VariableShortCircuitSecondPos,VariableWavelengthInShortCircuit,OpenLoadPosition,WaveNodePosShortTerminal,StandingWaveRatioTerminal</t>
+  </si>
+  <si>
+    <t>WaveNodePosShortMatching,StandingWaveRatioMatching</t>
+  </si>
+  <si>
+    <t>实验二</t>
+  </si>
+  <si>
+    <t>WaveguideWavelengthFirst,EquivalentSectionPositionFirst</t>
+  </si>
+  <si>
+    <t>SWRFirst,WaveNodePositionFirst</t>
+  </si>
+  <si>
+    <t>MinimumVoltageAfterMatchingFirst,MaximumVoltageAfterMatchingFirst</t>
   </si>
 </sst>
 </file>
@@ -59,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -73,6 +94,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -82,59 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +192,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -171,40 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,18 +491,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +532,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +558,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,112 +579,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1046,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1092,38 +1113,66 @@
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>

--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ExperimentInputVerify" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>MinimumVoltageAfterMatchingFirst,MaximumVoltageAfterMatchingFirst</t>
+  </si>
+  <si>
+    <t>WaveguideWavelengthSecond,EquivalentSectionPositionSecond</t>
+  </si>
+  <si>
+    <t>SWRSecond,WaveNodePositionSecond</t>
+  </si>
+  <si>
+    <t>MinimumVoltageAfterMatchingSecond,MaximumVoltageAfterMatchingSecond</t>
+  </si>
+  <si>
+    <t>实验三</t>
+  </si>
+  <si>
+    <t>OnePortVoltage</t>
+  </si>
+  <si>
+    <t>ThreePortVoltage,CouplingFactor</t>
   </si>
 </sst>
 </file>
@@ -80,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -95,6 +113,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -102,44 +194,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,8 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,63 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +265,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,19 +325,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,133 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +456,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,24 +515,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -500,17 +524,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1064,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1071,7 +1089,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1131,12 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
@@ -1121,8 +1145,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
@@ -1131,8 +1159,12 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1142,7 +1174,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
@@ -1155,8 +1187,12 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
@@ -1165,8 +1201,12 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
@@ -1175,34 +1215,74 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>

--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -51,7 +51,7 @@
     <t>实验一</t>
   </si>
   <si>
-    <t>SourceFrequency,Attenuator,EquivalentSectionPosition,InputWavelength</t>
+    <t>SourceFrequency,Attenuator,EquivalentSectionPosition,InputWavelength,SourceVoltage</t>
   </si>
   <si>
     <t>WaveNodePosShortCircuit,StandingWaveRatioCircuit</t>
@@ -66,7 +66,7 @@
     <t>实验二</t>
   </si>
   <si>
-    <t>WaveguideWavelengthFirst,EquivalentSectionPositionFirst</t>
+    <t>WaveguideWavelengthFirst,EquivalentSectionPositionFirst,inputSourceFrequencyFirst,inputSourceVoltageFirst,inputAttenuatorSetupFirst</t>
   </si>
   <si>
     <t>SWRFirst,WaveNodePositionFirst</t>
@@ -75,7 +75,7 @@
     <t>MinimumVoltageAfterMatchingFirst,MaximumVoltageAfterMatchingFirst</t>
   </si>
   <si>
-    <t>WaveguideWavelengthSecond,EquivalentSectionPositionSecond</t>
+    <t>WaveguideWavelengthSecond,EquivalentSectionPositionSecond,inputSourceFrequencySecond,inputSourceVoltageSecond,inputAttenuatorSetupSecond</t>
   </si>
   <si>
     <t>SWRSecond,WaveNodePositionSecond</t>
@@ -112,6 +112,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -133,9 +148,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,8 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,94 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,79 +265,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,103 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,41 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,24 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,6 +508,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ExperimentInputVerify" sheetId="1" r:id="rId1"/>
@@ -99,14 +99,127 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -120,137 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,56 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -556,6 +521,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
@@ -1166,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -1208,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
@@ -1222,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1236,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -1278,7 +1278,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>24</v>

--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -87,7 +87,7 @@
     <t>实验三</t>
   </si>
   <si>
-    <t>OnePortVoltage</t>
+    <t>OnePortVoltage,inputSourceFrequency,inputSourceVoltage</t>
   </si>
   <si>
     <t>ThreePortVoltage,CouplingFactor</t>
@@ -98,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,7 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,43 +128,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,25 +198,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,33 +219,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,14 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,30 +456,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,8 +492,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,7 +517,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +539,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -564,145 +564,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/DLKJ/DOC/Excel/实验一Word对应.xlsx
+++ b/DLKJ/DOC/Excel/实验一Word对应.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ExperimentInputVerify" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>实验一</t>
   </si>
   <si>
-    <t>SourceFrequency,Attenuator,EquivalentSectionPosition,InputWavelength,SourceVoltage</t>
+    <t>EquivalentSectionPosition,InputWavelength</t>
   </si>
   <si>
     <t>WaveNodePosShortCircuit,StandingWaveRatioCircuit</t>
@@ -66,7 +66,7 @@
     <t>实验二</t>
   </si>
   <si>
-    <t>WaveguideWavelengthFirst,EquivalentSectionPositionFirst,inputSourceFrequencyFirst,inputSourceVoltageFirst,inputAttenuatorSetupFirst</t>
+    <t>WaveguideWavelengthFirst,EquivalentSectionPositionFirst</t>
   </si>
   <si>
     <t>SWRFirst,WaveNodePositionFirst</t>
@@ -87,7 +87,7 @@
     <t>实验三</t>
   </si>
   <si>
-    <t>OnePortVoltage,inputSourceFrequency,inputSourceVoltage</t>
+    <t>OnePortVoltage</t>
   </si>
   <si>
     <t>ThreePortVoltage,CouplingFactor</t>
@@ -98,9 +98,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -113,6 +113,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,15 +127,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +180,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,33 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,59 +242,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +265,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,151 +415,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,16 +460,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,30 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,8 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +541,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,16 +576,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,13 +594,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,97 +615,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
